--- a/data/trans_dic/P04D$colectiva-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P04D$colectiva-Edad-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.03965202508589979</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.07331408319341606</v>
+        <v>0.07331408319341608</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.03190484967149822</v>
@@ -664,7 +664,7 @@
         <v>0.02999106737040779</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.07401496315130045</v>
+        <v>0.07401496315130046</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02367067313635817</v>
+        <v>0.02463349318146247</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02266232014746532</v>
+        <v>0.02348231643265368</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04198652670354189</v>
+        <v>0.04415827852038447</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01626825998622364</v>
+        <v>0.01811726565743896</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.00769591872648135</v>
+        <v>0.009352792179498323</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04658850116465577</v>
+        <v>0.04556524781132796</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02490052963477265</v>
+        <v>0.02482652034020015</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02086327412529746</v>
+        <v>0.02000385066556841</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0533849680089374</v>
+        <v>0.05328099843999001</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06060831362375248</v>
+        <v>0.06467769135075055</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06223702493793342</v>
+        <v>0.06096700189855953</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1199483867425022</v>
+        <v>0.1170396967162061</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05285083732125818</v>
+        <v>0.05373357077697222</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03697492299605186</v>
+        <v>0.03784236748287217</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1182327292857917</v>
+        <v>0.1155258215398237</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05074467240335391</v>
+        <v>0.04949669578232275</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04430522302034466</v>
+        <v>0.04448110824439033</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1040508460405851</v>
+        <v>0.1008075192416507</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.02798530944146923</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.06667293843529797</v>
+        <v>0.06667293843529795</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.03757039999552066</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02986696791155486</v>
+        <v>0.02796892046438229</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0193737609864216</v>
+        <v>0.0181392609866614</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02809541448017308</v>
+        <v>0.0263331514408421</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01982550603334529</v>
+        <v>0.02037437296361811</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01626038592291915</v>
+        <v>0.01662966990657195</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04798465766820494</v>
+        <v>0.04646493653276453</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02745436965280862</v>
+        <v>0.02726058785657664</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02076748983388907</v>
+        <v>0.02126235617578422</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04144532750723362</v>
+        <v>0.0415576048639933</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06196552745262026</v>
+        <v>0.05804453596252858</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04865096440411197</v>
+        <v>0.04651851682348049</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07566096317711632</v>
+        <v>0.07634721690050728</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04866679182437372</v>
+        <v>0.04969451114917133</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04463606752310482</v>
+        <v>0.04446253505953907</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.09224637838512534</v>
+        <v>0.09011874878989308</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05006314576793895</v>
+        <v>0.04972380775682918</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03971376608030245</v>
+        <v>0.04120314556699593</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0742096695256769</v>
+        <v>0.07443797040609383</v>
       </c>
     </row>
     <row r="10">
@@ -882,7 +882,7 @@
         <v>0.02628162492789138</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.0650052945116549</v>
+        <v>0.06500529451165492</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01665394236309155</v>
+        <v>0.01699387865973963</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01715394590201726</v>
+        <v>0.01892219216815536</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04150324748437578</v>
+        <v>0.041766041193213</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01828469476191865</v>
+        <v>0.02029096403265716</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01417687593462325</v>
+        <v>0.01426416617380683</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05445203334894255</v>
+        <v>0.05325080493520281</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02145560283800441</v>
+        <v>0.02064105112809174</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01852130275755939</v>
+        <v>0.01855093704705158</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05256027444307949</v>
+        <v>0.05249665586248332</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04209684368323275</v>
+        <v>0.04306050915627073</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04400866754701554</v>
+        <v>0.04707848996459347</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0815060333006177</v>
+        <v>0.07902416263950923</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04596697569911812</v>
+        <v>0.0462454130974977</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03792035781329799</v>
+        <v>0.03901460390142949</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.08726989824882921</v>
+        <v>0.08805074071123789</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03909880092405865</v>
+        <v>0.03883708067593326</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03681698241985149</v>
+        <v>0.0359099267684613</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.08025541364236694</v>
+        <v>0.08043025487520924</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.02980303478304191</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.06070024441981409</v>
+        <v>0.06070024441981408</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.03082903923263005</v>
@@ -982,7 +982,7 @@
         <v>0.03491480574170309</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.06824305102887676</v>
+        <v>0.06824305102887675</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.03340808810745482</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02285130823334876</v>
+        <v>0.02419371949808846</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01751224572411499</v>
+        <v>0.01772090827335791</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04539376054110346</v>
+        <v>0.04415085403243616</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01885217520863697</v>
+        <v>0.01754747949180845</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02375917056947941</v>
+        <v>0.02244995918227198</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05404278012725809</v>
+        <v>0.05482375966841355</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02404271907865375</v>
+        <v>0.02382395368548169</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02315584590556538</v>
+        <v>0.02283917624705352</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05320794051513624</v>
+        <v>0.05397428781927315</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0530683795800339</v>
+        <v>0.05701821541639365</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04688676825208805</v>
+        <v>0.04611133987455943</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07962599679492419</v>
+        <v>0.07961694855640132</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04803149624718529</v>
+        <v>0.04958214914145949</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05222930871200706</v>
+        <v>0.0524517956781367</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08446474200370034</v>
+        <v>0.08382030740814005</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04475066693602807</v>
+        <v>0.04555907592809763</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04515639834371119</v>
+        <v>0.04340864263155993</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07747477523575065</v>
+        <v>0.07756171974272945</v>
       </c>
     </row>
     <row r="16">
@@ -1091,7 +1091,7 @@
         <v>0.02068676538315015</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.06108497733466925</v>
+        <v>0.06108497733466926</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.02457674123124683</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01006933735392073</v>
+        <v>0.00981378220966119</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01154958674268926</v>
+        <v>0.01128281381486858</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03321271829752811</v>
+        <v>0.03543176659795191</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01407513325422349</v>
+        <v>0.01365166341550614</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01109992156588139</v>
+        <v>0.009172429544368955</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04727638534689071</v>
+        <v>0.04803549158058876</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.0161854638749941</v>
+        <v>0.01460950873222791</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01385976926921891</v>
+        <v>0.01377873236124238</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04501440664096805</v>
+        <v>0.0452014801718276</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0400967465316622</v>
+        <v>0.039623852450774</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04375901399025336</v>
+        <v>0.04442744697218363</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06437834373154247</v>
+        <v>0.06820558127740324</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04764619931230989</v>
+        <v>0.04899055836352464</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03853119853929562</v>
+        <v>0.0367197869443428</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.07743065382447269</v>
+        <v>0.07692432091101163</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03857177113964301</v>
+        <v>0.03705591315536225</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03431590793960437</v>
+        <v>0.03410712815617242</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06707564645242274</v>
+        <v>0.06618405738981274</v>
       </c>
     </row>
     <row r="19">
@@ -1200,7 +1200,7 @@
         <v>0.02719529987350458</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.05623437942269033</v>
+        <v>0.05623437942269034</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.01381565154612375</v>
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.003221319629344598</v>
+        <v>0.003232476416097513</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.005260278803156485</v>
+        <v>0.00531606876129871</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.05315125892856752</v>
+        <v>0.05287691171653205</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.00556064939354332</v>
+        <v>0.005512327859298059</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01323172425671623</v>
+        <v>0.01366102770413443</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.04152976497628931</v>
+        <v>0.04333831321846269</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.006121721774149794</v>
+        <v>0.006296735850528681</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01261315436722126</v>
+        <v>0.01259893753456885</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.0519222033681237</v>
+        <v>0.05135331369925834</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0324594598034807</v>
+        <v>0.03239038126251637</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.02893242868453529</v>
+        <v>0.03203682538558385</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.09331752826629391</v>
+        <v>0.09377365700321105</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.03244947504379359</v>
+        <v>0.03120250915524417</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.04697313845958929</v>
+        <v>0.05139877379934053</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.07429308527948875</v>
+        <v>0.07355855154725016</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.02490198340696072</v>
+        <v>0.02628780617105097</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.03453848705842421</v>
+        <v>0.0333718273541202</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.07728722057474775</v>
+        <v>0.07675279458161056</v>
       </c>
     </row>
     <row r="22">
@@ -1300,7 +1300,7 @@
         <v>0.02001169904845597</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.05436791905575754</v>
+        <v>0.05436791905575755</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.01076080740630142</v>
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.009166748417948798</v>
+        <v>0.009010586300040667</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.006225390935294685</v>
+        <v>0.006290817962472274</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0364582121143005</v>
+        <v>0.03662296593395874</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.002771905482524757</v>
+        <v>0.002604082618645409</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.003189311613073287</v>
+        <v>0.003207752817552314</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01827340461896511</v>
+        <v>0.01820678315391972</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.008385730376954932</v>
+        <v>0.008476006601102752</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.007940168195716898</v>
+        <v>0.008071723789432432</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02857841724502822</v>
+        <v>0.0298307927901302</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.05869258872880775</v>
+        <v>0.05978072599249211</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04037485944420299</v>
+        <v>0.04077946437689034</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.07637369791854692</v>
+        <v>0.07775438062916608</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.02672938115610052</v>
+        <v>0.02466215040233504</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.03833525396499736</v>
+        <v>0.03528849709977131</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.03999220097221753</v>
+        <v>0.04065688821533631</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.03234265712368019</v>
+        <v>0.03335116871795814</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.03260114154013549</v>
+        <v>0.03382288443364003</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.04979002367614947</v>
+        <v>0.05011114606623156</v>
       </c>
     </row>
     <row r="25">
@@ -1409,7 +1409,7 @@
         <v>0.02798933878433816</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.05879632095483153</v>
+        <v>0.05879632095483152</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>0.02689166906771153</v>
@@ -1427,7 +1427,7 @@
         <v>0.02636716231506373</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0.06005392701313575</v>
+        <v>0.06005392701313574</v>
       </c>
     </row>
     <row r="26">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.0259199288011123</v>
+        <v>0.02515502401502953</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.02311846522341529</v>
+        <v>0.02292903123459043</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.05147590474289751</v>
+        <v>0.05096337191556996</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.02203091143182783</v>
+        <v>0.02134580356298643</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.02002681159401866</v>
+        <v>0.01936549372209201</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.05481839067662377</v>
+        <v>0.05510120665137194</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.02517127709178358</v>
+        <v>0.02521106298712206</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.02277001817482422</v>
+        <v>0.02293270302368387</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.05457759291191023</v>
+        <v>0.05501806435664433</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.03797670867510351</v>
+        <v>0.03738986369802896</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.03480126139815361</v>
+        <v>0.03441595435657473</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.06871395380824424</v>
+        <v>0.06750251720651521</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.03327376803973597</v>
+        <v>0.03286093385893399</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.03048360789579132</v>
+        <v>0.0307555107457878</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.0686737407626877</v>
+        <v>0.06837085943372589</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.03333089214003773</v>
+        <v>0.0335907406379239</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.03037811011342038</v>
+        <v>0.03063721549268442</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.06567318986715388</v>
+        <v>0.06548915967923617</v>
       </c>
     </row>
     <row r="28">
@@ -1729,31 +1729,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>10706</v>
+        <v>11142</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>9506</v>
+        <v>9850</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>16984</v>
+        <v>17863</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6967</v>
+        <v>7759</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3046</v>
+        <v>3701</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>16889</v>
+        <v>16518</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>21927</v>
+        <v>21861</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>17008</v>
+        <v>16307</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>40948</v>
+        <v>40868</v>
       </c>
     </row>
     <row r="7">
@@ -1764,31 +1764,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>27413</v>
+        <v>29254</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>26106</v>
+        <v>25573</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>48522</v>
+        <v>47345</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>22634</v>
+        <v>23012</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>14633</v>
+        <v>14976</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>42861</v>
+        <v>41879</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>44684</v>
+        <v>43585</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>36118</v>
+        <v>36262</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>79811</v>
+        <v>77323</v>
       </c>
     </row>
     <row r="8">
@@ -1873,31 +1873,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>20521</v>
+        <v>19217</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>11440</v>
+        <v>10711</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13398</v>
+        <v>12558</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>12099</v>
+        <v>12434</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>9163</v>
+        <v>9372</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>23988</v>
+        <v>23228</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>35618</v>
+        <v>35366</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>23967</v>
+        <v>24538</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>40483</v>
+        <v>40593</v>
       </c>
     </row>
     <row r="11">
@@ -1908,31 +1908,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>42576</v>
+        <v>39882</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>28728</v>
+        <v>27469</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>36082</v>
+        <v>36409</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>29699</v>
+        <v>30326</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>25154</v>
+        <v>25057</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>46114</v>
+        <v>45050</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>64949</v>
+        <v>64509</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>45831</v>
+        <v>47550</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>72487</v>
+        <v>72710</v>
       </c>
     </row>
     <row r="12">
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>11340</v>
+        <v>11571</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>11478</v>
+        <v>12661</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>25575</v>
+        <v>25737</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>12977</v>
+        <v>14401</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>9376</v>
+        <v>9434</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>33841</v>
+        <v>33094</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>29837</v>
+        <v>28704</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>24642</v>
+        <v>24682</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>65054</v>
+        <v>64975</v>
       </c>
     </row>
     <row r="15">
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>28664</v>
+        <v>29321</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>29446</v>
+        <v>31500</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>50226</v>
+        <v>48696</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>32624</v>
+        <v>32822</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>25080</v>
+        <v>25804</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>54236</v>
+        <v>54722</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>54372</v>
+        <v>54008</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>48984</v>
+        <v>47778</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>99332</v>
+        <v>99548</v>
       </c>
     </row>
     <row r="16">
@@ -2161,31 +2161,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>13969</v>
+        <v>14789</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>11314</v>
+        <v>11449</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>31804</v>
+        <v>30933</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>11596</v>
+        <v>10793</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>15422</v>
+        <v>14572</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>39711</v>
+        <v>40285</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>29485</v>
+        <v>29217</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>29990</v>
+        <v>29580</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>76376</v>
+        <v>77476</v>
       </c>
     </row>
     <row r="19">
@@ -2196,31 +2196,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>32440</v>
+        <v>34854</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>30291</v>
+        <v>29790</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>55787</v>
+        <v>55781</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>29543</v>
+        <v>30497</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>33901</v>
+        <v>34045</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>62065</v>
+        <v>61591</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>54881</v>
+        <v>55872</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>58483</v>
+        <v>56220</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>111209</v>
+        <v>111333</v>
       </c>
     </row>
     <row r="20">
@@ -2305,31 +2305,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4324</v>
+        <v>4214</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>5520</v>
+        <v>5392</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>20171</v>
+        <v>21518</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>6303</v>
+        <v>6113</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>5515</v>
+        <v>4557</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>28689</v>
+        <v>29149</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>14198</v>
+        <v>12816</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>13510</v>
+        <v>13431</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>54654</v>
+        <v>54882</v>
       </c>
     </row>
     <row r="23">
@@ -2340,31 +2340,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>17219</v>
+        <v>17016</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>20913</v>
+        <v>21233</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>39098</v>
+        <v>41423</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>21336</v>
+        <v>21938</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>19144</v>
+        <v>18244</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>46987</v>
+        <v>46680</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>33836</v>
+        <v>32507</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>33450</v>
+        <v>33247</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>81440</v>
+        <v>80358</v>
       </c>
     </row>
     <row r="24">
@@ -2449,31 +2449,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1759</v>
+        <v>1777</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>21591</v>
+        <v>21479</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1968</v>
+        <v>1951</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>4998</v>
+        <v>5161</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>18188</v>
+        <v>18980</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>4063</v>
+        <v>4180</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>8982</v>
+        <v>8972</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>43830</v>
+        <v>43350</v>
       </c>
     </row>
     <row r="27">
@@ -2484,31 +2484,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>10055</v>
+        <v>10034</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>9673</v>
+        <v>10711</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>37907</v>
+        <v>38092</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>11487</v>
+        <v>11046</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>17745</v>
+        <v>19417</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>32536</v>
+        <v>32215</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>16529</v>
+        <v>17449</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>24595</v>
+        <v>23764</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>65242</v>
+        <v>64791</v>
       </c>
     </row>
     <row r="28">
@@ -2593,31 +2593,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2281</v>
+        <v>2243</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1600</v>
+        <v>1617</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>11309</v>
+        <v>11360</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1078</v>
+        <v>1013</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1276</v>
+        <v>1284</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>8482</v>
+        <v>8451</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>5349</v>
+        <v>5407</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>5218</v>
+        <v>5304</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>22130</v>
+        <v>23100</v>
       </c>
     </row>
     <row r="31">
@@ -2628,31 +2628,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>14608</v>
+        <v>14879</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>10376</v>
+        <v>10480</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>23691</v>
+        <v>24119</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>10397</v>
+        <v>9593</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>15341</v>
+        <v>14121</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>18563</v>
+        <v>18872</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>20630</v>
+        <v>21274</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>21424</v>
+        <v>22227</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>38556</v>
+        <v>38805</v>
       </c>
     </row>
     <row r="32">
@@ -2737,31 +2737,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>88638</v>
+        <v>86022</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>78472</v>
+        <v>77829</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>181297</v>
+        <v>179492</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>78300</v>
+        <v>75865</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>70986</v>
+        <v>68642</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>204343</v>
+        <v>205398</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>175539</v>
+        <v>175817</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>157999</v>
+        <v>159128</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>395667</v>
+        <v>398860</v>
       </c>
     </row>
     <row r="35">
@@ -2772,31 +2772,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>129868</v>
+        <v>127862</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>118128</v>
+        <v>116820</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>242009</v>
+        <v>237743</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>118258</v>
+        <v>116791</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>108050</v>
+        <v>109014</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>255991</v>
+        <v>254862</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>232443</v>
+        <v>234255</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>210790</v>
+        <v>212588</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>476106</v>
+        <v>474772</v>
       </c>
     </row>
     <row r="36">
